--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\OneDrive\Desktop\Ruqsana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14BC064-5905-4BAC-A2BE-7C9EBD14B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77078BFB-4715-470C-AA2F-F693DDDE4ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="310">
   <si>
     <t>Month</t>
   </si>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>Microservices architecture + JVM internals</t>
-  </si>
-  <si>
-    <t>📚 Topics Details</t>
   </si>
   <si>
     <r>
@@ -1380,14 +1377,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>370</xdr:row>
-          <xdr:rowOff>19419</xdr:rowOff>
+          <xdr:row>364</xdr:row>
+          <xdr:rowOff>58748</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>851228</xdr:colOff>
-          <xdr:row>371</xdr:row>
-          <xdr:rowOff>177964</xdr:rowOff>
+          <xdr:row>366</xdr:row>
+          <xdr:rowOff>40558</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1693,8 +1690,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:R369"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="62" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2209,10 +2206,10 @@
         <v>109</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -2244,19 +2241,19 @@
         <v>117</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2277,13 +2274,13 @@
         <v>45839</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:15" ht="72" x14ac:dyDescent="0.3">
@@ -2300,19 +2297,19 @@
         <v>125</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L38" s="15">
         <v>45870</v>
       </c>
       <c r="M38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="O38" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2333,13 +2330,13 @@
         <v>45901</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="O39" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="2:15" ht="72" x14ac:dyDescent="0.3">
@@ -2356,19 +2353,19 @@
         <v>133</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L40" s="15">
         <v>45931</v>
       </c>
       <c r="M40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="N40" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="O40" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2389,41 +2386,39 @@
         <v>45962</v>
       </c>
       <c r="M41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="O41" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="42" spans="2:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="H42" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L42" s="15">
         <v>45992</v>
       </c>
       <c r="M42" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="N42" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="O42" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="H44" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
@@ -2431,9 +2426,7 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>139</v>
-      </c>
+      <c r="B46" s="7"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
@@ -2443,7 +2436,7 @@
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="H48" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
@@ -2451,11 +2444,9 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="B50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
@@ -2463,28 +2454,22 @@
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="B52" s="8"/>
       <c r="H52" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
@@ -2496,25 +2481,19 @@
       <c r="B59" s="8"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>144</v>
-      </c>
+      <c r="B60" s="8"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="8"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="8" t="s">
-        <v>145</v>
-      </c>
+      <c r="B62" s="8"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="B64" s="8"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
@@ -3071,14 +3050,14 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>370</xdr:row>
-                <xdr:rowOff>22860</xdr:rowOff>
+                <xdr:row>364</xdr:row>
+                <xdr:rowOff>60960</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>853440</xdr:colOff>
-                <xdr:row>371</xdr:row>
-                <xdr:rowOff>175260</xdr:rowOff>
+                <xdr:row>366</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -3096,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10962C14-E06E-4202-BAC3-685663530F60}">
   <dimension ref="B3:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C64"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -3127,94 +3106,94 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="16"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" s="17"/>
     </row>
-    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="16"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="17"/>
     </row>
@@ -3223,46 +3202,46 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E16" s="17"/>
     </row>
@@ -3270,31 +3249,31 @@
       <c r="B17" s="16"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E17" s="17"/>
     </row>
-    <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="16"/>
       <c r="C19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E19" s="17"/>
     </row>
@@ -3302,18 +3281,18 @@
       <c r="B20" s="16"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E20" s="17"/>
     </row>
     <row r="23" spans="2:5" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
@@ -3321,7 +3300,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
@@ -3329,7 +3308,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
@@ -3337,7 +3316,7 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
@@ -3345,22 +3324,22 @@
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="3:3" ht="18" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
@@ -3368,7 +3347,7 @@
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.3">
@@ -3376,7 +3355,7 @@
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.3">
@@ -3384,22 +3363,22 @@
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="3:3" ht="18" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
@@ -3407,7 +3386,7 @@
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
@@ -3415,7 +3394,7 @@
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
@@ -3423,22 +3402,22 @@
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="3:6" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C68" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.3">
@@ -3457,58 +3436,58 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3539,17 +3518,17 @@
   <sheetData>
     <row r="3" spans="3:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="3:3" ht="18" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.3">
@@ -3557,17 +3536,17 @@
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C9" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.3">
@@ -3575,17 +3554,17 @@
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.3">
@@ -3593,17 +3572,17 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
@@ -3611,22 +3590,22 @@
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="3:3" ht="18" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
@@ -3634,12 +3613,12 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
@@ -3647,12 +3626,12 @@
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
@@ -3660,22 +3639,22 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C38" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="3:3" ht="18" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
@@ -3683,12 +3662,12 @@
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.3">
@@ -3696,12 +3675,12 @@
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.3">
@@ -3709,17 +3688,17 @@
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="3:3" ht="18" x14ac:dyDescent="0.3">
       <c r="C51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
@@ -3727,12 +3706,12 @@
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
@@ -3740,7 +3719,7 @@
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
@@ -3754,7 +3733,7 @@
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C60" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
@@ -3762,12 +3741,12 @@
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="3:3" ht="23.4" x14ac:dyDescent="0.3">
       <c r="C66" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
@@ -3775,7 +3754,7 @@
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
@@ -3783,7 +3762,7 @@
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
@@ -3791,7 +3770,7 @@
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
@@ -3799,12 +3778,12 @@
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="3:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C78" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
@@ -3812,7 +3791,7 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C80" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.3">
@@ -3820,7 +3799,7 @@
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.3">
@@ -3828,7 +3807,7 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.3">
@@ -3836,7 +3815,7 @@
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.3">
@@ -3844,89 +3823,89 @@
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="3:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C92" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="95" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C95" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="96" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="97" spans="3:5" ht="72" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E97" s="2" t="s">
+    </row>
+    <row r="98" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C98" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="98" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="99" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="100" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
